--- a/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H2">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.6356523974258</v>
+        <v>125.0114046666667</v>
       </c>
       <c r="N2">
-        <v>94.6356523974258</v>
+        <v>375.034214</v>
       </c>
       <c r="O2">
-        <v>0.3476394968131315</v>
+        <v>0.4125441987306753</v>
       </c>
       <c r="P2">
-        <v>0.3476394968131315</v>
+        <v>0.4125441987306753</v>
       </c>
       <c r="Q2">
-        <v>126.3191231829067</v>
+        <v>173.5872528598662</v>
       </c>
       <c r="R2">
-        <v>126.3191231829067</v>
+        <v>1562.285275738796</v>
       </c>
       <c r="S2">
-        <v>0.1224351145092548</v>
+        <v>0.1453610462252417</v>
       </c>
       <c r="T2">
-        <v>0.1224351145092548</v>
+        <v>0.1453610462252417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H3">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.098767011672</v>
+        <v>139.2310486666667</v>
       </c>
       <c r="N3">
-        <v>139.098767011672</v>
+        <v>417.693146</v>
       </c>
       <c r="O3">
-        <v>0.5109726001379584</v>
+        <v>0.4594697704883666</v>
       </c>
       <c r="P3">
-        <v>0.5109726001379584</v>
+        <v>0.4594697704883666</v>
       </c>
       <c r="Q3">
-        <v>185.6682322107157</v>
+        <v>193.3322428884715</v>
       </c>
       <c r="R3">
-        <v>185.6682322107157</v>
+        <v>1739.990185996244</v>
       </c>
       <c r="S3">
-        <v>0.179959381435336</v>
+        <v>0.1618953963055558</v>
       </c>
       <c r="T3">
-        <v>0.179959381435336</v>
+        <v>0.1618953963055559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H4">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.4891146397269</v>
+        <v>38.78302866666667</v>
       </c>
       <c r="N4">
-        <v>38.4891146397269</v>
+        <v>116.349086</v>
       </c>
       <c r="O4">
-        <v>0.1413879030489101</v>
+        <v>0.1279860307809581</v>
       </c>
       <c r="P4">
-        <v>0.1413879030489101</v>
+        <v>0.1279860307809581</v>
       </c>
       <c r="Q4">
-        <v>51.37504830588485</v>
+        <v>53.85300182637822</v>
       </c>
       <c r="R4">
-        <v>51.37504830588485</v>
+        <v>484.6770164374039</v>
       </c>
       <c r="S4">
-        <v>0.04979538935796446</v>
+        <v>0.04509621852344017</v>
       </c>
       <c r="T4">
-        <v>0.04979538935796446</v>
+        <v>0.04509621852344017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H5">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.6356523974258</v>
+        <v>125.0114046666667</v>
       </c>
       <c r="N5">
-        <v>94.6356523974258</v>
+        <v>375.034214</v>
       </c>
       <c r="O5">
-        <v>0.3476394968131315</v>
+        <v>0.4125441987306753</v>
       </c>
       <c r="P5">
-        <v>0.3476394968131315</v>
+        <v>0.4125441987306753</v>
       </c>
       <c r="Q5">
-        <v>232.3485400703689</v>
+        <v>319.0647746301316</v>
       </c>
       <c r="R5">
-        <v>232.3485400703689</v>
+        <v>2871.582971671184</v>
       </c>
       <c r="S5">
-        <v>0.2252043823038767</v>
+        <v>0.2671831525054336</v>
       </c>
       <c r="T5">
-        <v>0.2252043823038767</v>
+        <v>0.2671831525054336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H6">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.098767011672</v>
+        <v>139.2310486666667</v>
       </c>
       <c r="N6">
-        <v>139.098767011672</v>
+        <v>417.693146</v>
       </c>
       <c r="O6">
-        <v>0.5109726001379584</v>
+        <v>0.4594697704883666</v>
       </c>
       <c r="P6">
-        <v>0.5109726001379584</v>
+        <v>0.4594697704883666</v>
       </c>
       <c r="Q6">
-        <v>341.5139497852662</v>
+        <v>355.3573634565528</v>
       </c>
       <c r="R6">
-        <v>341.5139497852662</v>
+        <v>3198.216271108976</v>
       </c>
       <c r="S6">
-        <v>0.3310132187026223</v>
+        <v>0.2975743741828107</v>
       </c>
       <c r="T6">
-        <v>0.3310132187026223</v>
+        <v>0.2975743741828107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H7">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.4891146397269</v>
+        <v>38.78302866666667</v>
       </c>
       <c r="N7">
-        <v>38.4891146397269</v>
+        <v>116.349086</v>
       </c>
       <c r="O7">
-        <v>0.1413879030489101</v>
+        <v>0.1279860307809581</v>
       </c>
       <c r="P7">
-        <v>0.1413879030489101</v>
+        <v>0.1279860307809581</v>
       </c>
       <c r="Q7">
-        <v>94.49810265570551</v>
+        <v>98.98535524817956</v>
       </c>
       <c r="R7">
-        <v>94.49810265570551</v>
+        <v>890.868197233616</v>
       </c>
       <c r="S7">
-        <v>0.09159251369094562</v>
+        <v>0.08288981225751793</v>
       </c>
       <c r="T7">
-        <v>0.09159251369094562</v>
+        <v>0.08288981225751794</v>
       </c>
     </row>
   </sheetData>
